--- a/2024-8-12_lattice_files/solenoid_parameters_all.xlsx
+++ b/2024-8-12_lattice_files/solenoid_parameters_all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\real_design\change_in_stage1_2_and_3_old\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE328451-7B6B-46DD-87C8-4D092EEA382A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A90FAA-47F7-41B8-BABF-049A93E29DEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8E5EE81A-4797-47FA-BB3B-3C1AA33E794A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="60">
   <si>
     <t>A-Stage 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -241,6 +241,14 @@
   </si>
   <si>
     <t>(-45.5, 0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nb3Sn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REBCO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -630,8 +638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CE96E87-A0A2-4A42-9463-223CAB187BAE}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -684,6 +692,9 @@
       <c r="F2" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="G2" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -704,6 +715,9 @@
       <c r="F3" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="G3" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -724,6 +738,9 @@
       <c r="F4" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="G4" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -744,6 +761,9 @@
       <c r="F5" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="G5" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -764,6 +784,9 @@
       <c r="F7" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="G7" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -784,6 +807,9 @@
       <c r="F8" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="G8" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -804,6 +830,9 @@
       <c r="F9" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="G9" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -824,6 +853,9 @@
       <c r="F11" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="G11" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -844,6 +876,9 @@
       <c r="F12" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="G12" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -864,6 +899,9 @@
       <c r="F14" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="G14" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -884,6 +922,9 @@
       <c r="F15" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="G15" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
@@ -904,6 +945,9 @@
       <c r="F17" s="3" t="s">
         <v>46</v>
       </c>
+      <c r="G17" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -924,6 +968,9 @@
       <c r="F18" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="G18" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -944,6 +991,9 @@
       <c r="F19" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="G19" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -964,6 +1014,9 @@
       <c r="F21" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="G21" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -984,6 +1037,9 @@
       <c r="F22" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="G22" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
@@ -1004,6 +1060,9 @@
       <c r="F23" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="G23" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
@@ -1024,7 +1083,9 @@
       <c r="F25" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G25" s="3"/>
+      <c r="G25" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -1045,6 +1106,9 @@
       <c r="F26" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="G26" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
@@ -1065,6 +1129,9 @@
       <c r="F27" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="G27" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
@@ -1085,6 +1152,9 @@
       <c r="F29" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="G29" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
@@ -1105,6 +1175,9 @@
       <c r="F30" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="G30" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
@@ -1114,7 +1187,7 @@
         <v>204.9</v>
       </c>
       <c r="C31" s="1">
-        <v>12.6</v>
+        <v>12.1</v>
       </c>
       <c r="D31" s="1">
         <v>138.1</v>
@@ -1125,8 +1198,11 @@
       <c r="F31" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>23</v>
       </c>
@@ -1145,8 +1221,11 @@
       <c r="F33" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>24</v>
       </c>
@@ -1165,8 +1244,11 @@
       <c r="F34" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>25</v>
       </c>
@@ -1174,7 +1256,7 @@
         <v>207.8</v>
       </c>
       <c r="C35" s="1">
-        <v>11</v>
+        <v>10.6</v>
       </c>
       <c r="D35" s="1">
         <v>125.2</v>
@@ -1184,6 +1266,9 @@
       </c>
       <c r="F35" s="1" t="s">
         <v>57</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/2024-8-12_lattice_files/solenoid_parameters_all.xlsx
+++ b/2024-8-12_lattice_files/solenoid_parameters_all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\real_design\change_in_stage1_2_and_3_old\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A90FAA-47F7-41B8-BABF-049A93E29DEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B549D8DB-4762-4266-8EC2-FE8B1C0BEE54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8E5EE81A-4797-47FA-BB3B-3C1AA33E794A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="62">
   <si>
     <t>A-Stage 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -244,11 +244,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Nb3Sn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>REBCO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maximum Br field in coil (T)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REBCO/Nb3Sn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REBCO/(Nb3Sn?)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -636,24 +644,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CE96E87-A0A2-4A42-9463-223CAB187BAE}">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="D16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="26" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.21875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="32.77734375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="26.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="40.44140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="25.88671875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="25.21875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="32.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="40.44140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="25.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>31</v>
       </c>
@@ -661,19 +669,22 @@
         <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -684,19 +695,22 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="D2" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="E2" s="1">
         <v>24.1</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>40.700000000000003</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -707,19 +721,22 @@
         <v>11.5</v>
       </c>
       <c r="D3" s="1">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="E3" s="1">
         <v>141.69999999999999</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>184.2</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -730,19 +747,22 @@
         <v>10</v>
       </c>
       <c r="D4" s="1">
+        <v>7.9</v>
+      </c>
+      <c r="E4" s="1">
         <v>68.2</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>120.1</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -753,19 +773,22 @@
         <v>13.2</v>
       </c>
       <c r="D5" s="1">
+        <v>11.2</v>
+      </c>
+      <c r="E5" s="1">
         <v>134.19999999999999</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>239.5</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -776,19 +799,22 @@
         <v>6.7</v>
       </c>
       <c r="D7" s="1">
+        <v>-3.1</v>
+      </c>
+      <c r="E7" s="1">
         <v>12.1</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="1">
         <v>23.827000000000002</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -799,19 +825,22 @@
         <v>4.5</v>
       </c>
       <c r="D8" s="1">
+        <v>-5.0999999999999996</v>
+      </c>
+      <c r="E8" s="1">
         <v>32</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F8" s="1">
         <v>57.984999999999999</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -822,19 +851,22 @@
         <v>12.2</v>
       </c>
       <c r="D9" s="1">
+        <v>-13.4</v>
+      </c>
+      <c r="E9" s="1">
         <v>144</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F9" s="1">
         <v>178.99100000000001</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -845,19 +877,22 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="D11" s="1">
+        <v>-7.6</v>
+      </c>
+      <c r="E11" s="1">
         <v>28.5</v>
       </c>
-      <c r="E11" s="1">
+      <c r="F11" s="1">
         <v>284.67700000000002</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -868,19 +903,22 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="D12" s="1">
+        <v>-8.6999999999999993</v>
+      </c>
+      <c r="E12" s="1">
         <v>112.6</v>
       </c>
-      <c r="E12" s="1">
+      <c r="F12" s="1">
         <v>133.69999999999999</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
@@ -891,19 +929,22 @@
         <v>11.7</v>
       </c>
       <c r="D14" s="1">
+        <v>-10.4</v>
+      </c>
+      <c r="E14" s="1">
         <v>29</v>
       </c>
-      <c r="E14" s="1">
+      <c r="F14" s="1">
         <v>297.7</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
@@ -914,19 +955,22 @@
         <v>13.4</v>
       </c>
       <c r="D15" s="1">
+        <v>14</v>
+      </c>
+      <c r="E15" s="1">
         <v>142.30000000000001</v>
       </c>
-      <c r="E15" s="1">
+      <c r="F15" s="1">
         <v>204.9</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
@@ -937,19 +981,22 @@
         <v>15.3</v>
       </c>
       <c r="D17" s="2">
+        <v>-12.7</v>
+      </c>
+      <c r="E17" s="2">
         <v>41.2</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>350</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="G17" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>12</v>
       </c>
@@ -960,19 +1007,22 @@
         <v>9.1</v>
       </c>
       <c r="D18" s="1">
+        <v>-11.6</v>
+      </c>
+      <c r="E18" s="1">
         <v>35</v>
       </c>
-      <c r="E18" s="1">
+      <c r="F18" s="1">
         <v>204.3</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
@@ -983,19 +1033,22 @@
         <v>10.8</v>
       </c>
       <c r="D19" s="1">
+        <v>11.4</v>
+      </c>
+      <c r="E19" s="1">
         <v>134.80000000000001</v>
       </c>
-      <c r="E19" s="1">
+      <c r="F19" s="1">
         <v>143.69999999999999</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
@@ -1006,19 +1059,22 @@
         <v>14.4</v>
       </c>
       <c r="D21" s="1">
+        <v>-9.5</v>
+      </c>
+      <c r="E21" s="1">
         <v>21.7</v>
       </c>
-      <c r="E21" s="1">
+      <c r="F21" s="1">
         <v>259.10000000000002</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>15</v>
       </c>
@@ -1029,19 +1085,22 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="D22" s="1">
+        <v>-10.5</v>
+      </c>
+      <c r="E22" s="1">
         <v>26.2</v>
       </c>
-      <c r="E22" s="1">
+      <c r="F22" s="1">
         <v>159.19999999999999</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>16</v>
       </c>
@@ -1052,19 +1111,22 @@
         <v>11.1</v>
       </c>
       <c r="D23" s="1">
+        <v>12.4</v>
+      </c>
+      <c r="E23" s="1">
         <v>138.5</v>
       </c>
-      <c r="E23" s="1">
+      <c r="F23" s="1">
         <v>157</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="G23" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>17</v>
       </c>
@@ -1075,19 +1137,22 @@
         <v>16.3</v>
       </c>
       <c r="D25" s="2">
+        <v>-10.199999999999999</v>
+      </c>
+      <c r="E25" s="2">
         <v>16</v>
       </c>
-      <c r="E25" s="3">
+      <c r="F25" s="3">
         <v>257</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="G25" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>18</v>
       </c>
@@ -1098,19 +1163,22 @@
         <v>7.4</v>
       </c>
       <c r="D26" s="1">
+        <v>-14.9</v>
+      </c>
+      <c r="E26" s="1">
         <v>46.1</v>
       </c>
-      <c r="E26" s="1">
+      <c r="F26" s="1">
         <v>255.5</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="G26" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G26" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>19</v>
       </c>
@@ -1121,19 +1189,22 @@
         <v>12.6</v>
       </c>
       <c r="D27" s="1">
+        <v>12.6</v>
+      </c>
+      <c r="E27" s="1">
         <v>148.4</v>
       </c>
-      <c r="E27" s="1">
+      <c r="F27" s="1">
         <v>195.3</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="G27" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G27" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>20</v>
       </c>
@@ -1144,19 +1215,22 @@
         <v>17</v>
       </c>
       <c r="D29" s="1">
+        <v>-9</v>
+      </c>
+      <c r="E29" s="1">
         <v>21.5</v>
       </c>
-      <c r="E29" s="1">
+      <c r="F29" s="1">
         <v>246.7</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="G29" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="H29" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>21</v>
       </c>
@@ -1167,19 +1241,22 @@
         <v>10.4</v>
       </c>
       <c r="D30" s="1">
+        <v>-9.6999999999999993</v>
+      </c>
+      <c r="E30" s="1">
         <v>9.8000000000000007</v>
       </c>
-      <c r="E30" s="1">
+      <c r="F30" s="1">
         <v>105</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="G30" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>22</v>
       </c>
@@ -1190,19 +1267,22 @@
         <v>12.1</v>
       </c>
       <c r="D31" s="1">
+        <v>12.4</v>
+      </c>
+      <c r="E31" s="1">
         <v>138.1</v>
       </c>
-      <c r="E31" s="1">
+      <c r="F31" s="1">
         <v>188</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="G31" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G31" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>23</v>
       </c>
@@ -1213,19 +1293,22 @@
         <v>19.100000000000001</v>
       </c>
       <c r="D33" s="1">
+        <v>-9.1999999999999993</v>
+      </c>
+      <c r="E33" s="1">
         <v>31.9</v>
       </c>
-      <c r="E33" s="1">
+      <c r="F33" s="1">
         <v>359.5</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="G33" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G33" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>24</v>
       </c>
@@ -1236,19 +1319,22 @@
         <v>7.9</v>
       </c>
       <c r="D34" s="1">
+        <v>-10.8</v>
+      </c>
+      <c r="E34" s="1">
         <v>24.6</v>
       </c>
-      <c r="E34" s="1">
+      <c r="F34" s="1">
         <v>91.9</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="G34" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G34" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>25</v>
       </c>
@@ -1259,16 +1345,19 @@
         <v>10.6</v>
       </c>
       <c r="D35" s="1">
+        <v>11.5</v>
+      </c>
+      <c r="E35" s="1">
         <v>125.2</v>
       </c>
-      <c r="E35" s="1">
+      <c r="F35" s="1">
         <v>97.6</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="G35" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G35" s="1" t="s">
-        <v>58</v>
+      <c r="H35" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
